--- a/Prac2/results.xlsx
+++ b/Prac2/results.xlsx
@@ -13,7 +13,115 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Execution time (s)</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>Total Execution Time (s)</t>
+  </si>
+  <si>
+    <t>Execution Time With Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Kernel (s)</t>
+  </si>
+  <si>
+    <t>n3</t>
+  </si>
+  <si>
+    <t>Execution Time of all Parallel Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Execution time (s)</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>Total Execution Time (s)</t>
+  </si>
+  <si>
+    <t>Execution Time With Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Kernel (s)</t>
+  </si>
+  <si>
+    <t>n3</t>
+  </si>
+  <si>
+    <t>Execution Time of all Parallel Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Execution time (s)</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>Total Execution Time (s)</t>
+  </si>
+  <si>
+    <t>Execution Time With Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Kernel (s)</t>
+  </si>
+  <si>
+    <t>n3</t>
+  </si>
+  <si>
+    <t>Execution Time of all Parallel Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Execution time (s)</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>Total Execution Time (s)</t>
+  </si>
+  <si>
+    <t>Execution Time With Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Kernel (s)</t>
+  </si>
+  <si>
+    <t>n3</t>
+  </si>
+  <si>
+    <t>Execution Time of all Parallel Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Data Transfer Overhead (s)</t>
+  </si>
   <si>
     <t>n</t>
   </si>
@@ -101,31 +209,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">

--- a/Prac2/results.xlsx
+++ b/Prac2/results.xlsx
@@ -13,7 +13,277 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Execution time (s)</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>Total Execution Time (s)</t>
+  </si>
+  <si>
+    <t>Execution Time With Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Kernel (s)</t>
+  </si>
+  <si>
+    <t>n3</t>
+  </si>
+  <si>
+    <t>Execution Time of all Parallel Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Execution time (s)</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>Total Execution Time (s)</t>
+  </si>
+  <si>
+    <t>Execution Time With Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Kernel (s)</t>
+  </si>
+  <si>
+    <t>n3</t>
+  </si>
+  <si>
+    <t>Execution Time of all Parallel Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Execution time (s)</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>Total Execution Time (s)</t>
+  </si>
+  <si>
+    <t>Execution Time With Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Kernel (s)</t>
+  </si>
+  <si>
+    <t>n3</t>
+  </si>
+  <si>
+    <t>Execution Time of all Parallel Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Execution time (s)</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>Total Execution Time (s)</t>
+  </si>
+  <si>
+    <t>Execution Time With Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Kernel (s)</t>
+  </si>
+  <si>
+    <t>n3</t>
+  </si>
+  <si>
+    <t>Execution Time of all Parallel Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Execution time (s)</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>Total Execution Time (s)</t>
+  </si>
+  <si>
+    <t>Execution Time With Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Kernel (s)</t>
+  </si>
+  <si>
+    <t>n3</t>
+  </si>
+  <si>
+    <t>Execution Time of all Parallel Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Execution time (s)</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>Total Execution Time (s)</t>
+  </si>
+  <si>
+    <t>Execution Time With Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Kernel (s)</t>
+  </si>
+  <si>
+    <t>n3</t>
+  </si>
+  <si>
+    <t>Execution Time of all Parallel Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Execution time (s)</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>Total Execution Time (s)</t>
+  </si>
+  <si>
+    <t>Execution Time With Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Kernel (s)</t>
+  </si>
+  <si>
+    <t>n3</t>
+  </si>
+  <si>
+    <t>Execution Time of all Parallel Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Execution time (s)</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>Total Execution Time (s)</t>
+  </si>
+  <si>
+    <t>Execution Time With Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Kernel (s)</t>
+  </si>
+  <si>
+    <t>n3</t>
+  </si>
+  <si>
+    <t>Execution Time of all Parallel Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Execution time (s)</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>Total Execution Time (s)</t>
+  </si>
+  <si>
+    <t>Execution Time With Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Kernel (s)</t>
+  </si>
+  <si>
+    <t>n3</t>
+  </si>
+  <si>
+    <t>Execution Time of all Parallel Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Execution time (s)</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>Total Execution Time (s)</t>
+  </si>
+  <si>
+    <t>Execution Time With Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Kernel (s)</t>
+  </si>
+  <si>
+    <t>n3</t>
+  </si>
+  <si>
+    <t>Execution Time of all Parallel Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Data Transfer Overhead (s)</t>
+  </si>
   <si>
     <t>n</t>
   </si>
@@ -209,31 +479,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
